--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\projekt-main\projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F14A3-24E6-4585-BFB3-687B620B1A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC930D7-4454-440D-8ECA-22D0EFA336DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,12 +295,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF96DBFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,14 +395,14 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -766,9 +760,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -983,7 +977,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="20">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1002,7 +996,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1021,7 +1015,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="20">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1040,7 +1034,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="20">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1059,7 +1053,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="20">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1078,8 +1072,8 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="18">
-        <v>30</v>
+      <c r="E20" s="20">
+        <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>53</v>
@@ -1110,8 +1104,8 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="19">
-        <v>50</v>
+      <c r="E22" s="21">
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>53</v>
@@ -1142,8 +1136,8 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="18">
-        <v>4</v>
+      <c r="E24" s="20">
+        <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1161,7 +1155,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="20">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1180,7 +1174,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="20">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1199,7 +1193,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="20">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1218,7 +1212,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="20">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1237,8 +1231,8 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="18">
-        <v>24</v>
+      <c r="E29" s="20">
+        <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1269,8 +1263,8 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="19">
-        <v>40</v>
+      <c r="E31" s="21">
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1301,8 +1295,8 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="18">
-        <v>10</v>
+      <c r="E33" s="20">
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>51</v>
@@ -1320,8 +1314,8 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="18">
-        <v>10</v>
+      <c r="E34" s="20">
+        <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>51</v>
@@ -1339,8 +1333,8 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="18">
-        <v>10</v>
+      <c r="E35" s="20">
+        <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>51</v>
@@ -1358,8 +1352,8 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="18">
-        <v>10</v>
+      <c r="E36" s="20">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>51</v>
@@ -1377,8 +1371,8 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="18">
-        <v>10</v>
+      <c r="E37" s="20">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>51</v>
@@ -1396,8 +1390,8 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="18">
-        <v>10</v>
+      <c r="E38" s="20">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>51</v>
@@ -1428,8 +1422,8 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="19">
-        <v>40</v>
+      <c r="E40" s="21">
+        <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>51</v>
@@ -1460,8 +1454,8 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="18">
-        <v>10</v>
+      <c r="E42" s="20">
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1479,8 +1473,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="18">
-        <v>10</v>
+      <c r="E43" s="20">
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1498,8 +1492,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="18">
-        <v>10</v>
+      <c r="E44" s="20">
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1517,8 +1511,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="18">
-        <v>10</v>
+      <c r="E45" s="20">
+        <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1536,7 +1530,7 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="20">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -1555,8 +1549,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="18">
-        <v>10</v>
+      <c r="E47" s="20">
+        <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1587,8 +1581,8 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="19">
-        <v>30</v>
+      <c r="E49" s="21">
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1619,7 +1613,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="20">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1638,7 +1632,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="20">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1657,7 +1651,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="20">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1676,7 +1670,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="20">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1695,7 +1689,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="20">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1714,7 +1708,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="20">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1746,7 +1740,7 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="21">
         <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1778,8 +1772,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="18">
-        <v>10</v>
+      <c r="E60" s="20">
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1797,8 +1791,8 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="18">
-        <v>10</v>
+      <c r="E61" s="20">
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1816,8 +1810,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="18">
-        <v>10</v>
+      <c r="E62" s="20">
+        <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1835,8 +1829,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="18">
-        <v>10</v>
+      <c r="E63" s="20">
+        <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1854,8 +1848,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="18">
-        <v>10</v>
+      <c r="E64" s="20">
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1873,8 +1867,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="18">
-        <v>10</v>
+      <c r="E65" s="20">
+        <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1905,8 +1899,8 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="19">
-        <v>30</v>
+      <c r="E67" s="21">
+        <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>47</v>
@@ -1937,8 +1931,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="18">
-        <v>10</v>
+      <c r="E69" s="20">
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1956,8 +1950,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="18">
-        <v>10</v>
+      <c r="E70" s="20">
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1975,8 +1969,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="18">
-        <v>10</v>
+      <c r="E71" s="20">
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1994,8 +1988,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="18">
-        <v>10</v>
+      <c r="E72" s="20">
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2013,8 +2007,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="18">
-        <v>10</v>
+      <c r="E73" s="20">
+        <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2032,8 +2026,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="18">
-        <v>10</v>
+      <c r="E74" s="20">
+        <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2065,7 +2059,7 @@
         <v>2040</v>
       </c>
       <c r="E76" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>48</v>
@@ -2098,7 +2092,7 @@
       <c r="D78">
         <v>2020</v>
       </c>
-      <c r="E78" s="21">
+      <c r="E78" s="18">
         <v>0</v>
       </c>
       <c r="F78" t="s">
@@ -2115,7 +2109,7 @@
       <c r="D79" s="4">
         <v>2025</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E79" s="18">
         <v>10</v>
       </c>
       <c r="F79" t="s">
@@ -2132,7 +2126,7 @@
       <c r="D80" s="5">
         <v>2030</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E80" s="18">
         <v>20</v>
       </c>
       <c r="F80" t="s">
@@ -2149,8 +2143,8 @@
       <c r="D81" s="4">
         <v>2035</v>
       </c>
-      <c r="E81" s="21">
-        <v>20</v>
+      <c r="E81" s="18">
+        <v>40</v>
       </c>
       <c r="F81" t="s">
         <v>19</v>
@@ -2166,7 +2160,7 @@
       <c r="D82" s="5">
         <v>2040</v>
       </c>
-      <c r="E82" s="21">
+      <c r="E82" s="18">
         <v>50</v>
       </c>
       <c r="F82" t="s">
@@ -2183,7 +2177,7 @@
       <c r="D83" s="4">
         <v>2045</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E83" s="18">
         <v>60</v>
       </c>
       <c r="F83" t="s">
@@ -2200,8 +2194,8 @@
       <c r="D84" s="5">
         <v>2050</v>
       </c>
-      <c r="E84" s="21">
-        <v>60</v>
+      <c r="E84" s="18">
+        <v>80</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -2232,7 +2226,7 @@
       <c r="D86">
         <v>2020</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="18">
         <v>0</v>
       </c>
       <c r="F86" t="s">
@@ -2249,7 +2243,7 @@
       <c r="D87" s="4">
         <v>2025</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="18">
         <v>8</v>
       </c>
       <c r="F87" t="s">
@@ -2266,7 +2260,7 @@
       <c r="D88" s="5">
         <v>2030</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="18">
         <v>20</v>
       </c>
       <c r="F88" t="s">
@@ -2283,7 +2277,7 @@
       <c r="D89" s="4">
         <v>2035</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="18">
         <v>50</v>
       </c>
       <c r="F89" t="s">
@@ -2300,7 +2294,7 @@
       <c r="D90" s="5">
         <v>2040</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="18">
         <v>100</v>
       </c>
       <c r="F90" t="s">
@@ -2317,7 +2311,7 @@
       <c r="D91" s="4">
         <v>2045</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="18">
         <v>120</v>
       </c>
       <c r="F91" t="s">
@@ -2334,8 +2328,8 @@
       <c r="D92" s="5">
         <v>2050</v>
       </c>
-      <c r="E92" s="21">
-        <v>120</v>
+      <c r="E92" s="18">
+        <v>150</v>
       </c>
       <c r="F92" t="s">
         <v>21</v>
@@ -2364,7 +2358,7 @@
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="19">
         <v>141.68</v>
       </c>
       <c r="F94" t="s">
@@ -2385,7 +2379,7 @@
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="19">
         <v>123.2</v>
       </c>
       <c r="F95" t="s">
@@ -2406,7 +2400,7 @@
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="19">
         <v>115.5</v>
       </c>
       <c r="F96" t="s">
@@ -2427,7 +2421,7 @@
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="19">
         <v>107.8</v>
       </c>
       <c r="F97" t="s">
@@ -2448,7 +2442,7 @@
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="19">
         <v>101.64</v>
       </c>
       <c r="F98" t="s">
@@ -2469,7 +2463,7 @@
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="19">
         <v>96.25</v>
       </c>
       <c r="F99" t="s">
@@ -2506,7 +2500,7 @@
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="19">
         <v>765.45</v>
       </c>
       <c r="F101" t="s">
@@ -2527,7 +2521,7 @@
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102" s="22">
+      <c r="E102" s="19">
         <v>800.87</v>
       </c>
       <c r="F102" t="s">
@@ -2548,7 +2542,7 @@
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103" s="22">
+      <c r="E103" s="19">
         <v>840.91</v>
       </c>
       <c r="F103" t="s">
@@ -2569,7 +2563,7 @@
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104" s="22">
+      <c r="E104" s="19">
         <v>881.29</v>
       </c>
       <c r="F104" t="s">
@@ -2590,7 +2584,7 @@
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105" s="22">
+      <c r="E105" s="19">
         <v>921.96</v>
       </c>
       <c r="F105" t="s">
@@ -2611,7 +2605,7 @@
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106" s="22">
+      <c r="E106" s="19">
         <v>952.4</v>
       </c>
       <c r="F106" t="s">

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\Prezki\vead\projekt-main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC930D7-4454-440D-8ECA-22D0EFA336DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761808B-C501-4848-BC6A-0E6C7DDB4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
@@ -396,14 +396,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -709,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O113"/>
+  <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,9 +758,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -977,7 +975,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -996,7 +994,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1015,7 +1013,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1034,7 +1032,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1053,7 +1051,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1072,7 +1070,7 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1104,7 +1102,7 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1136,7 +1134,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1155,7 +1153,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1174,7 +1172,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1193,7 +1191,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1212,7 +1210,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1231,7 +1229,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1263,7 +1261,7 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -1295,7 +1293,7 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1314,7 +1312,7 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1333,7 +1331,7 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1352,7 +1350,7 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1371,7 +1369,7 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1390,7 +1388,7 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1422,7 +1420,7 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1454,7 +1452,7 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -1473,7 +1471,7 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -1492,7 +1490,7 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -1511,7 +1509,7 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -1530,7 +1528,7 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -1549,7 +1547,7 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
@@ -1581,7 +1579,7 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
@@ -1613,7 +1611,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1632,7 +1630,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1651,7 +1649,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1670,7 +1668,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1689,7 +1687,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1708,7 +1706,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1740,7 +1738,7 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="20">
         <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
@@ -1772,8 +1770,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="20">
-        <v>7</v>
+      <c r="E60" s="19">
+        <v>6</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1791,8 +1789,8 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="20">
-        <v>15</v>
+      <c r="E61" s="19">
+        <v>14</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1810,8 +1808,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="20">
-        <v>25</v>
+      <c r="E62" s="19">
+        <v>23</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1829,8 +1827,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="20">
-        <v>40</v>
+      <c r="E63" s="19">
+        <v>34</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1848,8 +1846,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="20">
-        <v>50</v>
+      <c r="E64" s="19">
+        <v>41</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1867,8 +1865,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="20">
-        <v>58</v>
+      <c r="E65" s="19">
+        <v>50</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1899,7 +1897,7 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="20">
         <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -1931,8 +1929,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="20">
-        <v>14</v>
+      <c r="E69" s="19">
+        <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1950,8 +1948,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="20">
-        <v>20</v>
+      <c r="E70" s="19">
+        <v>18</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1969,8 +1967,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="20">
-        <v>23</v>
+      <c r="E71" s="19">
+        <v>21</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1988,8 +1986,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="20">
-        <v>28</v>
+      <c r="E72" s="19">
+        <v>25</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2007,8 +2005,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="20">
-        <v>32</v>
+      <c r="E73" s="19">
+        <v>30</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2026,8 +2024,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="20">
-        <v>35</v>
+      <c r="E74" s="19">
+        <v>32</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2133,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2216,7 +2214,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2233,7 +2231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2301,7 +2299,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2318,7 +2316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2351,15 +2349,15 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94" s="19">
-        <v>141.68</v>
+      <c r="E94">
+        <v>111.68</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2371,16 +2369,17 @@
         <v>28</v>
       </c>
       <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N94" s="22"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95" s="19">
-        <v>123.2</v>
+      <c r="E95">
+        <v>93.2</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2392,16 +2391,17 @@
         <v>28</v>
       </c>
       <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N95" s="22"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96" s="19">
-        <v>115.5</v>
+      <c r="E96">
+        <v>85.5</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2413,16 +2413,17 @@
         <v>28</v>
       </c>
       <c r="I96" s="12"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N96" s="22"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97" s="19">
-        <v>107.8</v>
+      <c r="E97">
+        <v>77.8</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2434,16 +2435,17 @@
         <v>28</v>
       </c>
       <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N97" s="22"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="19">
-        <v>101.64</v>
+      <c r="E98" s="22">
+        <v>71.64</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2455,16 +2457,17 @@
         <v>28</v>
       </c>
       <c r="I98" s="12"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N98" s="22"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="19">
-        <v>96.25</v>
+      <c r="E99" s="22">
+        <v>66.25</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2476,8 +2479,9 @@
         <v>28</v>
       </c>
       <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="N99" s="22"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
@@ -2492,16 +2496,17 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P100" s="22"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101" s="19">
-        <v>765.45</v>
+      <c r="E101">
+        <v>665.45</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2513,16 +2518,17 @@
         <v>29</v>
       </c>
       <c r="I101" s="12"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P101" s="22"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102" s="19">
-        <v>800.87</v>
+      <c r="E102">
+        <v>700.87</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2534,16 +2540,17 @@
         <v>29</v>
       </c>
       <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P102" s="22"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103" s="19">
-        <v>840.91</v>
+      <c r="E103">
+        <v>740.91</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2555,16 +2562,17 @@
         <v>29</v>
       </c>
       <c r="I103" s="12"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P103" s="22"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104" s="19">
-        <v>881.29</v>
+      <c r="E104">
+        <v>781.29</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2576,16 +2584,17 @@
         <v>29</v>
       </c>
       <c r="I104" s="11"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="P104" s="22"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105" s="19">
-        <v>921.96</v>
+      <c r="E105">
+        <v>821.96</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2598,15 +2607,15 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106" s="19">
-        <v>952.4</v>
+      <c r="E106">
+        <v>852.4</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2619,7 +2628,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2633,7 +2642,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2655,7 +2664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2677,7 +2686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>38</v>
       </c>
@@ -2711,12 +2720,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2915,20 +2926,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2953,14 +2967,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F761808B-C501-4848-BC6A-0E6C7DDB4C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2356B73A-6339-4226-943F-2CEEC3787AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -944,7 +944,7 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -1262,7 +1262,7 @@
         <v>2040</v>
       </c>
       <c r="E31" s="20">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1453,7 +1453,7 @@
         <v>2025</v>
       </c>
       <c r="E42" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1472,7 +1472,7 @@
         <v>2030</v>
       </c>
       <c r="E43" s="19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1491,7 +1491,7 @@
         <v>2035</v>
       </c>
       <c r="E44" s="19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1510,7 +1510,7 @@
         <v>2040</v>
       </c>
       <c r="E45" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1529,7 +1529,7 @@
         <v>2045</v>
       </c>
       <c r="E46" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1548,7 +1548,7 @@
         <v>2050</v>
       </c>
       <c r="E47" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1580,7 +1580,7 @@
         <v>2040</v>
       </c>
       <c r="E49" s="20">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1739,7 +1739,7 @@
         <v>2040</v>
       </c>
       <c r="E58" s="20">
-        <v>16.899999999999999</v>
+        <v>6</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>45</v>
@@ -1790,7 +1790,7 @@
         <v>2030</v>
       </c>
       <c r="E61" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1809,7 +1809,7 @@
         <v>2035</v>
       </c>
       <c r="E62" s="19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1828,7 +1828,7 @@
         <v>2040</v>
       </c>
       <c r="E63" s="19">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1847,7 +1847,7 @@
         <v>2045</v>
       </c>
       <c r="E64" s="19">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1866,7 +1866,7 @@
         <v>2050</v>
       </c>
       <c r="E65" s="19">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2356B73A-6339-4226-943F-2CEEC3787AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E684D-44CE-4B00-9BC8-445681B013DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2506,7 @@
         <v>2025</v>
       </c>
       <c r="E101">
-        <v>665.45</v>
+        <v>332.72500000000002</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2528,7 +2528,7 @@
         <v>2030</v>
       </c>
       <c r="E102">
-        <v>700.87</v>
+        <v>350.435</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2550,7 +2550,7 @@
         <v>2035</v>
       </c>
       <c r="E103">
-        <v>740.91</v>
+        <v>370.45499999999998</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2572,7 +2572,7 @@
         <v>2040</v>
       </c>
       <c r="E104">
-        <v>781.29</v>
+        <v>390.64499999999998</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2594,7 +2594,7 @@
         <v>2045</v>
       </c>
       <c r="E105">
-        <v>821.96</v>
+        <v>410.98</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2615,7 +2615,7 @@
         <v>2050</v>
       </c>
       <c r="E106">
-        <v>852.4</v>
+        <v>426.2</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E684D-44CE-4B00-9BC8-445681B013DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406A057-2546-4B92-94D4-35D8DFCD3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,12 +396,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -409,6 +411,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFF3C9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P113"/>
+  <dimension ref="B2:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N113" sqref="N113"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -758,9 +765,9 @@
       <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -944,7 +951,7 @@
         <v>2040</v>
       </c>
       <c r="E13" s="9">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
@@ -975,7 +982,7 @@
       <c r="D15" s="4">
         <v>2025</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="20">
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -994,7 +1001,7 @@
       <c r="D16" s="5">
         <v>2030</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1013,7 +1020,7 @@
       <c r="D17" s="4">
         <v>2035</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="20">
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1032,7 +1039,7 @@
       <c r="D18" s="5">
         <v>2040</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1051,7 +1058,7 @@
       <c r="D19" s="4">
         <v>2045</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="20">
         <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1070,7 +1077,7 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="20">
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1102,7 +1109,7 @@
       <c r="D22" s="9">
         <v>2040</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="21">
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1134,7 +1141,7 @@
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="20">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1153,7 +1160,7 @@
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="20">
         <v>8</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1172,7 +1179,7 @@
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="20">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1191,7 +1198,7 @@
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="20">
         <v>16</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1210,7 +1217,7 @@
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="20">
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -1229,7 +1236,7 @@
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="20">
         <v>40</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -1261,8 +1268,8 @@
       <c r="D31" s="9">
         <v>2040</v>
       </c>
-      <c r="E31" s="20">
-        <v>20</v>
+      <c r="E31" s="21">
+        <v>15</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>52</v>
@@ -1293,7 +1300,7 @@
       <c r="D33" s="4">
         <v>2025</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="20">
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -1312,7 +1319,7 @@
       <c r="D34" s="5">
         <v>2030</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="20">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -1331,7 +1338,7 @@
       <c r="D35" s="4">
         <v>2035</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="20">
         <v>3.3</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -1350,7 +1357,7 @@
       <c r="D36" s="5">
         <v>2040</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1369,7 +1376,7 @@
       <c r="D37" s="4">
         <v>2045</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1388,7 +1395,7 @@
       <c r="D38" s="5">
         <v>2050</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="20">
         <v>4.0999999999999996</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1420,7 +1427,7 @@
       <c r="D40" s="9">
         <v>2040</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="21">
         <v>5</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1452,8 +1459,8 @@
       <c r="D42" s="4">
         <v>2025</v>
       </c>
-      <c r="E42" s="19">
-        <v>3</v>
+      <c r="E42" s="20">
+        <v>5</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>42</v>
@@ -1471,8 +1478,8 @@
       <c r="D43" s="5">
         <v>2030</v>
       </c>
-      <c r="E43" s="19">
-        <v>5</v>
+      <c r="E43" s="20">
+        <v>7</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>42</v>
@@ -1490,8 +1497,8 @@
       <c r="D44" s="4">
         <v>2035</v>
       </c>
-      <c r="E44" s="19">
-        <v>6</v>
+      <c r="E44" s="20">
+        <v>8</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>42</v>
@@ -1509,8 +1516,8 @@
       <c r="D45" s="5">
         <v>2040</v>
       </c>
-      <c r="E45" s="19">
-        <v>8</v>
+      <c r="E45" s="20">
+        <v>9</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>42</v>
@@ -1528,8 +1535,8 @@
       <c r="D46" s="4">
         <v>2045</v>
       </c>
-      <c r="E46" s="19">
-        <v>9</v>
+      <c r="E46" s="20">
+        <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>42</v>
@@ -1547,8 +1554,8 @@
       <c r="D47" s="5">
         <v>2050</v>
       </c>
-      <c r="E47" s="19">
-        <v>11</v>
+      <c r="E47" s="20">
+        <v>12</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>42</v>
@@ -1579,8 +1586,8 @@
       <c r="D49" s="9">
         <v>2040</v>
       </c>
-      <c r="E49" s="20">
-        <v>8</v>
+      <c r="E49" s="21">
+        <v>15</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>42</v>
@@ -1611,7 +1618,7 @@
       <c r="D51" s="4">
         <v>2025</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="20">
         <v>2</v>
       </c>
       <c r="F51" s="4" t="s">
@@ -1630,7 +1637,7 @@
       <c r="D52" s="5">
         <v>2030</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="20">
         <v>3.9</v>
       </c>
       <c r="F52" s="4" t="s">
@@ -1649,7 +1656,7 @@
       <c r="D53" s="4">
         <v>2035</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="20">
         <v>5</v>
       </c>
       <c r="F53" s="4" t="s">
@@ -1668,7 +1675,7 @@
       <c r="D54" s="5">
         <v>2040</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="20">
         <v>6</v>
       </c>
       <c r="F54" s="4" t="s">
@@ -1687,7 +1694,7 @@
       <c r="D55" s="4">
         <v>2045</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="20">
         <v>2</v>
       </c>
       <c r="F55" s="4" t="s">
@@ -1706,7 +1713,7 @@
       <c r="D56" s="5">
         <v>2050</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="20">
         <v>2</v>
       </c>
       <c r="F56" s="4" t="s">
@@ -1738,8 +1745,8 @@
       <c r="D58" s="9">
         <v>2040</v>
       </c>
-      <c r="E58" s="20">
-        <v>6</v>
+      <c r="E58" s="21">
+        <v>16.899999999999999</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>45</v>
@@ -1770,8 +1777,8 @@
       <c r="D60" s="4">
         <v>2025</v>
       </c>
-      <c r="E60" s="19">
-        <v>6</v>
+      <c r="E60" s="20">
+        <v>7</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>47</v>
@@ -1789,8 +1796,8 @@
       <c r="D61" s="5">
         <v>2030</v>
       </c>
-      <c r="E61" s="19">
-        <v>10</v>
+      <c r="E61" s="20">
+        <v>15</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>47</v>
@@ -1808,8 +1815,8 @@
       <c r="D62" s="4">
         <v>2035</v>
       </c>
-      <c r="E62" s="19">
-        <v>19</v>
+      <c r="E62" s="20">
+        <v>25</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>47</v>
@@ -1827,8 +1834,8 @@
       <c r="D63" s="5">
         <v>2040</v>
       </c>
-      <c r="E63" s="19">
-        <v>31</v>
+      <c r="E63" s="20">
+        <v>40</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>47</v>
@@ -1846,8 +1853,8 @@
       <c r="D64" s="4">
         <v>2045</v>
       </c>
-      <c r="E64" s="19">
-        <v>37</v>
+      <c r="E64" s="20">
+        <v>50</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>47</v>
@@ -1865,8 +1872,8 @@
       <c r="D65" s="5">
         <v>2050</v>
       </c>
-      <c r="E65" s="19">
-        <v>44</v>
+      <c r="E65" s="20">
+        <v>58</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>47</v>
@@ -1897,7 +1904,7 @@
       <c r="D67" s="9">
         <v>2040</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="21">
         <v>60</v>
       </c>
       <c r="F67" s="4" t="s">
@@ -1929,8 +1936,8 @@
       <c r="D69" s="4">
         <v>2025</v>
       </c>
-      <c r="E69" s="19">
-        <v>13</v>
+      <c r="E69" s="20">
+        <v>14</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>48</v>
@@ -1948,8 +1955,8 @@
       <c r="D70" s="5">
         <v>2030</v>
       </c>
-      <c r="E70" s="19">
-        <v>18</v>
+      <c r="E70" s="20">
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>48</v>
@@ -1967,8 +1974,8 @@
       <c r="D71" s="4">
         <v>2035</v>
       </c>
-      <c r="E71" s="19">
-        <v>21</v>
+      <c r="E71" s="20">
+        <v>23</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>48</v>
@@ -1986,8 +1993,8 @@
       <c r="D72" s="5">
         <v>2040</v>
       </c>
-      <c r="E72" s="19">
-        <v>25</v>
+      <c r="E72" s="20">
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>48</v>
@@ -2005,8 +2012,8 @@
       <c r="D73" s="4">
         <v>2045</v>
       </c>
-      <c r="E73" s="19">
-        <v>30</v>
+      <c r="E73" s="20">
+        <v>32</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>48</v>
@@ -2024,8 +2031,8 @@
       <c r="D74" s="5">
         <v>2050</v>
       </c>
-      <c r="E74" s="19">
-        <v>32</v>
+      <c r="E74" s="20">
+        <v>35</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>48</v>
@@ -2131,7 +2138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>6</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2221,7 @@
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>6</v>
       </c>
@@ -2248,7 +2255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>6</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>6</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>15</v>
       </c>
@@ -2349,15 +2356,15 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C94" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D94" s="12">
         <v>2025</v>
       </c>
-      <c r="E94">
-        <v>111.68</v>
+      <c r="E94" s="19">
+        <v>90.34</v>
       </c>
       <c r="F94" t="s">
         <v>21</v>
@@ -2369,17 +2376,16 @@
         <v>28</v>
       </c>
       <c r="I94" s="12"/>
-      <c r="N94" s="22"/>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C95" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D95" s="11">
         <v>2030</v>
       </c>
-      <c r="E95">
-        <v>93.2</v>
+      <c r="E95" s="19">
+        <v>30.71</v>
       </c>
       <c r="F95" t="s">
         <v>21</v>
@@ -2391,17 +2397,16 @@
         <v>28</v>
       </c>
       <c r="I95" s="11"/>
-      <c r="N95" s="22"/>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C96" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D96" s="12">
         <v>2035</v>
       </c>
-      <c r="E96">
-        <v>85.5</v>
+      <c r="E96" s="19">
+        <v>28.69</v>
       </c>
       <c r="F96" t="s">
         <v>21</v>
@@ -2413,17 +2418,16 @@
         <v>28</v>
       </c>
       <c r="I96" s="12"/>
-      <c r="N96" s="22"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C97" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D97" s="11">
         <v>2040</v>
       </c>
-      <c r="E97">
-        <v>77.8</v>
+      <c r="E97" s="19">
+        <v>26.14</v>
       </c>
       <c r="F97" t="s">
         <v>21</v>
@@ -2435,17 +2439,16 @@
         <v>28</v>
       </c>
       <c r="I97" s="11"/>
-      <c r="N97" s="22"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C98" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D98" s="12">
         <v>2045</v>
       </c>
-      <c r="E98" s="22">
-        <v>71.64</v>
+      <c r="E98" s="19">
+        <v>23.95</v>
       </c>
       <c r="F98" t="s">
         <v>21</v>
@@ -2457,17 +2460,16 @@
         <v>28</v>
       </c>
       <c r="I98" s="12"/>
-      <c r="N98" s="22"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C99" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D99" s="11">
         <v>2050</v>
       </c>
-      <c r="E99" s="22">
-        <v>66.25</v>
+      <c r="E99" s="19">
+        <v>21.37</v>
       </c>
       <c r="F99" t="s">
         <v>21</v>
@@ -2479,9 +2481,8 @@
         <v>28</v>
       </c>
       <c r="I99" s="11"/>
-      <c r="N99" s="22"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" s="13" t="s">
         <v>15</v>
       </c>
@@ -2496,17 +2497,16 @@
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
-      <c r="P100" s="22"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C101" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D101" s="12">
         <v>2025</v>
       </c>
-      <c r="E101">
-        <v>332.72500000000002</v>
+      <c r="E101" s="19">
+        <v>45.1</v>
       </c>
       <c r="F101" t="s">
         <v>19</v>
@@ -2518,17 +2518,16 @@
         <v>29</v>
       </c>
       <c r="I101" s="12"/>
-      <c r="P101" s="22"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C102" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D102" s="11">
         <v>2030</v>
       </c>
-      <c r="E102">
-        <v>350.435</v>
+      <c r="E102" s="19">
+        <v>49.51</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -2540,17 +2539,16 @@
         <v>29</v>
       </c>
       <c r="I102" s="11"/>
-      <c r="P102" s="22"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C103" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D103" s="12">
         <v>2035</v>
       </c>
-      <c r="E103">
-        <v>370.45499999999998</v>
+      <c r="E103" s="19">
+        <v>54.47</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -2562,17 +2560,16 @@
         <v>29</v>
       </c>
       <c r="I103" s="12"/>
-      <c r="P103" s="22"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D104" s="11">
         <v>2040</v>
       </c>
-      <c r="E104">
-        <v>390.64499999999998</v>
+      <c r="E104" s="19">
+        <v>59.73</v>
       </c>
       <c r="F104" t="s">
         <v>19</v>
@@ -2584,17 +2581,16 @@
         <v>29</v>
       </c>
       <c r="I104" s="11"/>
-      <c r="P104" s="22"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C105" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="12">
         <v>2045</v>
       </c>
-      <c r="E105">
-        <v>410.98</v>
+      <c r="E105" s="19">
+        <v>65.52</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -2607,15 +2603,15 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C106" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D106" s="11">
         <v>2050</v>
       </c>
-      <c r="E106">
-        <v>426.2</v>
+      <c r="E106" s="19">
+        <v>72.08</v>
       </c>
       <c r="F106" t="s">
         <v>19</v>
@@ -2628,7 +2624,7 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2638,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
         <v>38</v>
       </c>
@@ -2653,7 +2649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
         <v>38</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
         <v>38</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>38</v>
       </c>
@@ -2686,7 +2682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
         <v>38</v>
       </c>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406A057-2546-4B92-94D4-35D8DFCD3657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844FD5F-2A77-41C5-8FED-E0A7450EE5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="60">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Ograniczenia górne dla jądrówki</t>
+  </si>
+  <si>
+    <t>NCAP_AFA</t>
   </si>
 </sst>
 </file>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O113"/>
+  <dimension ref="B2:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2693,7 +2696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
         <v>38</v>
       </c>
@@ -2702,6 +2705,20 @@
       </c>
       <c r="F113" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>0.33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844FD5F-2A77-41C5-8FED-E0A7450EE5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9EDBF5-1008-4FD6-8061-F55A1B1303AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -980,7 +980,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>2025</v>
@@ -999,7 +999,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="5">
         <v>2030</v>
@@ -1018,7 +1018,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
         <v>2035</v>
@@ -1037,7 +1037,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5">
         <v>2040</v>
@@ -1056,7 +1056,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4">
         <v>2045</v>
@@ -1075,7 +1075,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5">
         <v>2050</v>
@@ -1139,13 +1139,13 @@
         <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="4">
         <v>2025</v>
       </c>
-      <c r="E24" s="20">
-        <v>0</v>
+      <c r="E24">
+        <v>0.61</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>52</v>
@@ -1158,13 +1158,13 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D25" s="5">
         <v>2030</v>
       </c>
-      <c r="E25" s="20">
-        <v>8</v>
+      <c r="E25">
+        <v>1.55</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>52</v>
@@ -1177,13 +1177,13 @@
         <v>55</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4">
         <v>2035</v>
       </c>
-      <c r="E26" s="20">
-        <v>12</v>
+      <c r="E26">
+        <v>6.85</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>52</v>
@@ -1196,13 +1196,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27" s="5">
         <v>2040</v>
       </c>
-      <c r="E27" s="20">
-        <v>16</v>
+      <c r="E27">
+        <v>9.23</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>52</v>
@@ -1215,13 +1215,13 @@
         <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D28" s="4">
         <v>2045</v>
       </c>
-      <c r="E28" s="20">
-        <v>20</v>
+      <c r="E28">
+        <v>17.77</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>52</v>
@@ -1234,13 +1234,13 @@
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D29" s="5">
         <v>2050</v>
       </c>
-      <c r="E29" s="20">
-        <v>40</v>
+      <c r="E29">
+        <v>20.86</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>52</v>
@@ -1457,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D42" s="4">
         <v>2025</v>
@@ -1476,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43" s="5">
         <v>2030</v>
@@ -1495,7 +1495,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4">
         <v>2035</v>
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45" s="5">
         <v>2040</v>
@@ -1533,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4">
         <v>2045</v>
@@ -1552,7 +1552,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47" s="5">
         <v>2050</v>
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D60" s="4">
         <v>2025</v>
@@ -1794,7 +1794,7 @@
         <v>6</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D61" s="5">
         <v>2030</v>
@@ -1813,7 +1813,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D62" s="4">
         <v>2035</v>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D63" s="5">
         <v>2040</v>
@@ -1851,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D64" s="4">
         <v>2045</v>
@@ -1870,7 +1870,7 @@
         <v>6</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D65" s="5">
         <v>2050</v>
@@ -1934,7 +1934,7 @@
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D69" s="4">
         <v>2025</v>
@@ -1953,7 +1953,7 @@
         <v>6</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D70" s="5">
         <v>2030</v>
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D71" s="4">
         <v>2035</v>
@@ -1991,7 +1991,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D72" s="5">
         <v>2040</v>
@@ -2010,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D73" s="4">
         <v>2045</v>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D74" s="5">
         <v>2050</v>
@@ -2091,8 +2091,8 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>6</v>
+      <c r="B78" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -2108,8 +2108,8 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>6</v>
+      <c r="B79" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -2125,8 +2125,8 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>6</v>
+      <c r="B80" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>6</v>
+      <c r="B81" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>6</v>
+      <c r="B82" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -2176,8 +2176,8 @@
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>6</v>
+      <c r="B83" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -2193,8 +2193,8 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>6</v>
+      <c r="B84" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -2225,8 +2225,8 @@
       <c r="H85" s="15"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>6</v>
+      <c r="B86" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
@@ -2242,8 +2242,8 @@
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>6</v>
+      <c r="B87" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -2259,8 +2259,8 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>6</v>
+      <c r="B88" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>18</v>
@@ -2276,8 +2276,8 @@
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>6</v>
+      <c r="B89" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>6</v>
+      <c r="B90" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
@@ -2310,8 +2310,8 @@
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>6</v>
+      <c r="B91" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
@@ -2327,8 +2327,8 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>6</v>
+      <c r="B92" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>

--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A485\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9EDBF5-1008-4FD6-8061-F55A1B1303AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638692CF-3617-4421-B8E4-445E80093D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1453,8 +1453,8 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>6</v>
+      <c r="B42" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>12</v>
@@ -1771,8 +1771,8 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
-        <v>6</v>
+      <c r="B60" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>12</v>
@@ -1930,8 +1930,8 @@
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
-        <v>6</v>
+      <c r="B69" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>12</v>
